--- a/STL Auto/Template/PayrollProof.xlsx
+++ b/STL Auto/Template/PayrollProof.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1rjacob\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MaskRider\App\STL Auto\STL Auto\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6C2C04B7-18B5-4ADA-9AD4-8B8DE22B03F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E64B5D1-CC02-42BF-877B-CBD3B5BC41FF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{B67070EF-A1B5-4AB6-B3F0-B5997174B9F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PayrollProof" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Saudi Technical Limited</t>
-  </si>
-  <si>
-    <t>Payroll Proof Listing by Employee</t>
-  </si>
-  <si>
-    <t>For the period ending</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>transfer</t>
   </si>
@@ -76,13 +67,16 @@
   </si>
   <si>
     <t>empid</t>
+  </si>
+  <si>
+    <t>50+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +85,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -159,10 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -481,11 +467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7893BF-154A-457E-A778-9EB8406E5CAF}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -495,176 +481,178 @@
     <col min="3" max="3" width="6.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="6.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="4.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="13" width="3.28515625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="4.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4">
-        <f>SUM(D7:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <f>SUM(E7:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <f>SUM(F7:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM(G7:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f>SUM(H7:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f>SUM(I7:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f>SUM(J7:J9)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f>SUM(K7:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <f>SUM(L7:L9)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <f>SUM(M7:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <f>SUM(N7:N9)</f>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:O7" si="0">SUM(D4:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.2" right="0.2" top="0.9" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;LSaudi Technical Limited 
+Payroll Proof Listing by Employee
+For the period ending &amp;D
+</oddHeader>
+    <oddFooter>&amp;L&amp;P/&amp;N&amp;C&amp;D&amp;RMAHMOUD SALAMA</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/STL Auto/Template/PayrollProof.xlsx
+++ b/STL Auto/Template/PayrollProof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MaskRider\App\STL Auto\STL Auto\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E64B5D1-CC02-42BF-877B-CBD3B5BC41FF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{12091CC7-C963-43AC-A44F-88ACE73C3261}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -543,12 +543,12 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -560,12 +560,12 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -577,12 +577,12 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -594,27 +594,27 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f t="shared" ref="D7:O7" si="0">SUM(D4:D6)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
